--- a/surgut.xlsx
+++ b/surgut.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3750000</t>
+          <t>3600000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1340000</v>
+        <v>1295000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan</t>
+          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1295000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1495000</v>
+        <v>1450000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/cuv</t>
+          <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1600000</t>
+          <t>1450000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2105000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -867,16 +867,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>935000</v>
+        <v>890000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1814900</v>
+        <v>1769900</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1919900</t>
+          <t>1769900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1759900</t>
+          <t>1609900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2999900</t>
+          <t>2849900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3539900</t>
+          <t>3389900</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1514900</v>
+        <v>1469900</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2829900</v>
+        <v>2679900</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2829900</t>
+          <t>2679900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2084900</v>
+        <v>2039900</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>2039900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1575,16 +1575,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2824900</v>
+        <v>2779900</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2929900</t>
+          <t>2779900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2054900</v>
+        <v>2009900</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2159900</t>
+          <t>2009900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1737,16 +1737,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2095000</v>
+        <v>2050000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1099900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1520000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1955,16 +1955,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>524900</v>
+        <v>479900</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1820000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2070000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2370000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2830000</t>
+          <t>2680000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>3101000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3560000</t>
+          <t>3410000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>611900</v>
+        <v>461900</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>611900</t>
+          <t>461900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>538900</v>
+        <v>388900</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>538900</t>
+          <t>388900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>608900</v>
+        <v>458900</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>458900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1329000</v>
+        <v>1179000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1329000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>629000</v>
+        <v>479000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2460000</t>
+          <t>2310000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2997,16 +2997,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3585000</v>
+        <v>3540000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3690000</t>
+          <t>3540000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3660000</t>
+          <t>3510000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4700000</t>
+          <t>4550000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3303,16 +3303,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1745000</v>
+        <v>1700000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1850000</t>
+          <t>1700000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3357,16 +3357,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1706000</v>
+        <v>1661000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1811000</t>
+          <t>1661000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>1420000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3465,16 +3465,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2335000</v>
+        <v>2290000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>2290000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1002000</v>
+        <v>852000</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1002000</t>
+          <t>852000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>908000</v>
+        <v>758000</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>908000</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2389000</t>
+          <t>2239000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1133990</v>
+        <v>1088990</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1238990</t>
+          <t>1088990</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2344990</t>
+          <t>2194990</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2118990</t>
+          <t>1968990</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1335990</v>
+        <v>1185990</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1335990</t>
+          <t>1185990</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1729990</t>
+          <t>1579990</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4297,16 +4297,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1114990</v>
+        <v>1069990</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1219990</t>
+          <t>1069990</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1159990</v>
+        <v>1009990</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1159990</t>
+          <t>1009990</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4469,16 +4469,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>614990</v>
+        <v>569990</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>719990</t>
+          <t>569990</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3574990</t>
+          <t>3424990</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2949990</t>
+          <t>2799990</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3674990</t>
+          <t>3524990</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2139000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2559000</t>
+          <t>2409000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1689000</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1739000</t>
+          <t>1589000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1029000</v>
+        <v>879000</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3239000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5231,16 +5231,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1134000</v>
+        <v>1089000</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1239000</t>
+          <t>1089000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5285,16 +5285,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1364000</v>
+        <v>1319000</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1469000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1559000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2469000</v>
+        <v>2319000</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2469000</t>
+          <t>2319000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2449000</t>
+          <t>2299000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1379000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>694000</v>
+        <v>649000</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6255,16 +6255,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2739900</v>
+        <v>2589900</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1784900</v>
+        <v>1739900</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/dashing</t>
+          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1889900</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6473,16 +6473,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2694900</v>
+        <v>2649900</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/x90plus</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2799900</t>
+          <t>2649900</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6527,16 +6527,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>985000</v>
+        <v>940000</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>940000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6581,16 +6581,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1285000</v>
+        <v>1240000</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6635,16 +6635,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1444000</v>
+        <v>1399000</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1399000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1495000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6743,16 +6743,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1526650</v>
+        <v>1481650</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1631650</t>
+          <t>1481650</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6797,16 +6797,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1809900</v>
+        <v>1764900</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1914900</t>
+          <t>1764900</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2497900</t>
+          <t>2347900</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1944900</v>
+        <v>1794900</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>1794900</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2014900</v>
+        <v>1864900</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2014900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1754900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2434900</t>
+          <t>2284900</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1034900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>967999</v>
+        <v>817999</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>967999</t>
+          <t>817999</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1134900</t>
+          <t>984900</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1124900</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>1509900</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1529900</v>
+        <v>1379900</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>1379900</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2549900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7731,16 +7731,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1004900</v>
+        <v>919900</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7901,23 +7901,41 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>980900</v>
+        <v>478500</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
+          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>478500</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>980900</v>
+        <v>497000</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/hatchback</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>778500</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
@@ -7929,41 +7947,23 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Hatchback New</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>478500</v>
+        <v>473500</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>478500</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="I181" t="n">
-        <v>497000</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/hatchback</t>
-        </is>
-      </c>
-      <c r="K181" t="n">
-        <v>778500</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_hatchback/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>473500</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
     </row>
@@ -7975,23 +7975,41 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Granta Hatchback New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>473500</v>
+        <v>343700</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>473500</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/liftback</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>422300</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>343700</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/liftback</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>739900</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
@@ -8003,41 +8021,23 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>343700</v>
+        <v>417300</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/liftback</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>422300</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>343700</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/liftback</t>
-        </is>
-      </c>
-      <c r="K183" t="n">
-        <v>739900</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_liftback/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>417300</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
         </is>
       </c>
     </row>
@@ -8049,23 +8049,41 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>417300</v>
+        <v>294400</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>417300</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>450900</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>294400</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>699900</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
@@ -8077,41 +8095,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>294400</v>
+        <v>445900</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>450900</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="I185" t="n">
-        <v>294400</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="K185" t="n">
-        <v>699900</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_sedan/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>445900</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
         </is>
       </c>
     </row>
@@ -8123,23 +8123,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>445900</v>
+        <v>980900</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>445900</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>980900</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
         </is>
       </c>
     </row>
@@ -8285,11 +8285,27 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1300900</v>
+        <v>444300</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/largus/</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>930900</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>444300</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
         </is>
       </c>
       <c r="K191" t="n">
@@ -8383,7 +8399,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus New 5</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -8413,7 +8429,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Largus Универсал</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -8421,15 +8437,15 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>930900</v>
+        <v>996900</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wa</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -8437,7 +8453,15 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1301900</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
@@ -8449,39 +8473,31 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>444300</v>
+        <v>742900</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>996900</v>
+        <v>742900</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>444300</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="K196" t="n">
-        <v>1301900</v>
+        <v>1042900</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
@@ -8493,31 +8509,33 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 дверей</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>742900</v>
+        <v>618900</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>742900</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>618900</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="K197" t="n">
-        <v>1042900</v>
+        <v>918900</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva/</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
@@ -8529,33 +8547,49 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Niva Legend 3 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>618900</v>
+        <v>350300</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>618900</t>
+          <t>529900</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>524900</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>350300</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="K198" t="n">
-        <v>918900</v>
+        <v>829900</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
@@ -8567,49 +8601,31 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>350300</v>
+        <v>371300</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>529900</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>524900</v>
+        <v>613900</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>350300</v>
+        <v>371300</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="K199" t="n">
-        <v>829900</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
     </row>
@@ -8621,31 +8637,23 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>371300</v>
+        <v>689900</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>613900</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>371300</v>
+        <v>689900</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
     </row>
@@ -8657,23 +8665,23 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>689900</v>
+        <v>592900</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
-        </is>
-      </c>
-      <c r="I201" t="n">
-        <v>689900</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>592900</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
     </row>
@@ -8685,23 +8693,23 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>592900</v>
+        <v>689900</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>592900</v>
+        <v>689900</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
     </row>
@@ -8713,23 +8721,41 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>689900</v>
+        <v>519000</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>524000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>689900</v>
+        <v>519000</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>824000</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
@@ -8741,41 +8767,49 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>519000</v>
+        <v>365200</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>524000</t>
+          <t>792900</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>519000</v>
+        <v>787900</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>365200</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="K204" t="n">
-        <v>824000</v>
+        <v>1092900</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
@@ -8787,49 +8821,49 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta CNG</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>365200</v>
+        <v>537300</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>792900</t>
+          <t>1016900</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>787900</v>
+        <v>1011900</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>365200</v>
+        <v>537300</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="K205" t="n">
-        <v>1092900</v>
+        <v>1316900</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
@@ -8841,49 +8875,49 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Vesta CNG</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>537300</v>
+        <v>550300</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1016900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1011900</v>
+        <v>964900</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>537300</v>
+        <v>550300</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="K206" t="n">
-        <v>1316900</v>
+        <v>1269900</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
@@ -8895,49 +8929,33 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>550300</v>
+        <v>1242900</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>1242900</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>964900</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>550300</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="K207" t="n">
-        <v>1269900</v>
+        <v>1733900</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
@@ -8949,33 +8967,49 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1242900</v>
+        <v>485300</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1242900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>908900</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>485300</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="K208" t="n">
-        <v>1733900</v>
+        <v>1213900</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
@@ -8987,49 +9021,49 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>485300</v>
+        <v>560000</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>908900</v>
+        <v>1023900</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>485300</v>
+        <v>560000</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="K209" t="n">
-        <v>1213900</v>
+        <v>1328900</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
@@ -9041,49 +9075,33 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>560000</v>
+        <v>1211900</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>1211900</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>1023900</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
-        </is>
-      </c>
-      <c r="I210" t="n">
-        <v>560000</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="K210" t="n">
-        <v>1328900</v>
+        <v>1853900</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
@@ -9095,33 +9113,33 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1211900</v>
+        <v>1029900</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1211900</t>
+          <t>1029900</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="K211" t="n">
-        <v>1853900</v>
+        <v>1639900</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
@@ -9133,33 +9151,49 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1029900</v>
+        <v>407900</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>816900</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>407900</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="K212" t="n">
-        <v>1639900</v>
+        <v>1121900</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
@@ -9171,49 +9205,33 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>407900</v>
+        <v>939900</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>939900</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
-        <v>816900</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
-        </is>
-      </c>
-      <c r="I213" t="n">
-        <v>407900</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="K213" t="n">
-        <v>1121900</v>
+        <v>1509900</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
@@ -9225,33 +9243,49 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>939900</v>
+        <v>570300</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>939900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1292900</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>570300</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="K214" t="n">
-        <v>1509900</v>
+        <v>1597900</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
@@ -9263,49 +9297,23 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>570300</v>
+        <v>1269900</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>1297900</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>1292900</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>570300</v>
+        <v>1269900</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="K215" t="n">
-        <v>1597900</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
@@ -9317,23 +9325,49 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1269900</v>
+        <v>409300</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>806900</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>801900</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1269900</v>
+        <v>409300</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1106900</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
@@ -9345,49 +9379,49 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>409300</v>
+        <v>522300</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>806900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>801900</v>
+        <v>944900</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>409300</v>
+        <v>522300</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="K217" t="n">
-        <v>1106900</v>
+        <v>1249900</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/xray/</t>
+          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
@@ -9399,79 +9433,63 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Фургон</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>522300</v>
+        <v>1001900</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>1001900</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>944900</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
-        </is>
-      </c>
-      <c r="I218" t="n">
-        <v>522300</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
-        </is>
-      </c>
-      <c r="K218" t="n">
-        <v>1249900</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Фургон</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1001900</v>
+        <v>555300</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>1001900</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>650300</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
     </row>
@@ -9483,33 +9501,33 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>650300</v>
+        <v>606300</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>705300</t>
+          <t>606300</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>650300</v>
+        <v>701300</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
     </row>
@@ -9521,33 +9539,49 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>701300</v>
+        <v>1634930</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>756300</t>
+          <t>1634930</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1679930</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>701300</v>
+        <v>2059900</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://aspect-motors.ru/auto/livan/s6pro/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>2549900</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
@@ -9559,49 +9593,33 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Solano II</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1679930</v>
+        <v>306300</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>306300</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-      <c r="G222" t="n">
-        <v>1679930</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>2059900</v>
+        <v>401300</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/s6pro/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="K222" t="n">
-        <v>2549900</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/livan/s6pro/</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
     </row>
@@ -9613,33 +9631,49 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Solano II</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>401300</v>
+        <v>1129900</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>456300</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1174900</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>401300</v>
+        <v>1389900</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://aspect-motors.ru/auto/livan/x3pro/suv</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1879900</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
@@ -9651,49 +9685,33 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1174900</v>
+        <v>420300</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv</t>
+          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>425300</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
-        <v>1174900</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1389900</v>
+        <v>420300</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/x3pro/suv</t>
-        </is>
-      </c>
-      <c r="K224" t="n">
-        <v>1879900</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/livan/x3pro/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
         </is>
       </c>
     </row>
@@ -9705,33 +9723,49 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>420300</v>
+        <v>1690930</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>575300</t>
+          <t>1690930</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1735930</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>420300</v>
+        <v>2139900</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
+          <t>https://aspect-motors.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>2629900</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
@@ -9743,49 +9777,33 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1735930</v>
+        <v>396300</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>396300</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
-        <v>1735930</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2139900</v>
+        <v>491300</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/x6pro/suv-1gen</t>
-        </is>
-      </c>
-      <c r="K226" t="n">
-        <v>2629900</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/livan/x6pro/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
     </row>
@@ -9797,71 +9815,69 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>491300</v>
+        <v>675300</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>546300</t>
+          <t>675300</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>491300</v>
+        <v>770300</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>770300</v>
+        <v>1630000</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>825300</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>770300</v>
+        <v>1679000</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://aspect-motors.ru/auto/mg/5/sedan</t>
         </is>
       </c>
     </row>
@@ -9873,31 +9889,31 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1630000</v>
+        <v>770000</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1630000</v>
+        <v>770000</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>1679000</v>
+        <v>889000</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/5/sedan</t>
+          <t>https://aspect-motors.ru/auto/mg/6/liftback</t>
         </is>
       </c>
     </row>
@@ -9909,31 +9925,31 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>770000</v>
+        <v>2319000</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>770000</v>
+        <v>2550000</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>889000</v>
+        <v>2319000</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/6/liftback</t>
+          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
         </is>
       </c>
     </row>
@@ -9945,67 +9961,59 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2319000</v>
+        <v>1780000</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2550000</v>
+        <v>1780000</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2319000</v>
+        <v>1790000</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
+          <t>https://aspect-motors.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>6 New</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1780000</v>
+        <v>1493000</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>1790000</v>
+        <v>1493000</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
     </row>
@@ -10017,23 +10025,23 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>6 New</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1493000</v>
+        <v>1650000</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>1493000</v>
+        <v>1650000</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
     </row>
@@ -10045,23 +10053,23 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1650000</v>
+        <v>1569000</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>1650000</v>
+        <v>1569000</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
     </row>
@@ -10073,51 +10081,51 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1569000</v>
+        <v>2528000</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>1569000</v>
+        <v>2528000</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2528000</v>
+        <v>1472000</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2528000</v>
+        <v>1472000</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
     </row>
@@ -10129,23 +10137,23 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1472000</v>
+        <v>2889000</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>1472000</v>
+        <v>2889000</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
     </row>
@@ -10157,23 +10165,23 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2889000</v>
+        <v>1549000</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>2889000</v>
+        <v>1549000</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
     </row>
@@ -10185,23 +10193,23 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1549000</v>
+        <v>2004000</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>1549000</v>
+        <v>2004000</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
     </row>
@@ -10213,51 +10221,77 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Pajero Sport New</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2004000</v>
+        <v>2959000</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>2004000</v>
+        <v>2959000</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pajero Sport New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2959000</v>
+        <v>1180000</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1180000</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1225000</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>2959000</v>
+        <v>1280000</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://aspect-motors.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
@@ -10269,49 +10303,41 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1225000</v>
+        <v>1629000</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1330000</t>
+          <t>2908000</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>1225000</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1280000</v>
+        <v>1629000</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
         </is>
       </c>
       <c r="K242" t="n">
-        <v>2220000</v>
+        <v>3558000</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/moskvich/3/</t>
+          <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
@@ -10323,77 +10349,69 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1629000</v>
+        <v>1636000</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>3058000</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>1636000</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1629000</v>
+        <v>1846000</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
-        </is>
-      </c>
-      <c r="K243" t="n">
-        <v>3558000</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
+          <t>https://aspect-motors.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1636000</v>
+        <v>3959000</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>1636000</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
-        </is>
-      </c>
-      <c r="I244" t="n">
-        <v>1846000</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>3959000</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>4409000</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
@@ -10405,33 +10423,23 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Murano New</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4109000</v>
+        <v>2499000</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>4109000</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="K245" t="n">
-        <v>4409000</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/murano/</t>
+          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
         </is>
       </c>
     </row>
@@ -10443,23 +10451,41 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Murano New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2499000</v>
+        <v>1687000</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
-        </is>
-      </c>
-      <c r="I246" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1687000</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1732000</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
@@ -10471,41 +10497,31 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1732000</v>
+        <v>1390000</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>1837000</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1732000</v>
+        <v>1837000</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
-        </is>
-      </c>
-      <c r="K247" t="n">
-        <v>2337000</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
     </row>
@@ -10517,31 +10533,33 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1390000</v>
+        <v>1240000</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
-        </is>
-      </c>
-      <c r="G248" t="n">
-        <v>1837000</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
-        </is>
-      </c>
-      <c r="I248" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1240000</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
@@ -10553,33 +10571,31 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1390000</v>
+        <v>669000</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>1390000</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="K249" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/terrano/</t>
+          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>669000</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
     </row>
@@ -10591,31 +10607,41 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>669000</v>
+        <v>1149000</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2202000</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>669000</v>
+        <v>1149000</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>2762000</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
@@ -10627,77 +10653,85 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1149000</v>
+        <v>1869000</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>2352000</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>2247000</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="I251" t="n">
-        <v>1149000</v>
+        <v>1869000</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
-        </is>
-      </c>
-      <c r="K251" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/x-trail/</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1869000</v>
+        <v>1219900</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
+          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1929900</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2247000</v>
+        <v>1974900</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>1869000</v>
+        <v>1219900</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
+          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>2679900</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
@@ -10709,49 +10743,49 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1219900</v>
+        <v>1469900</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
+          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>2079900</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
+          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1974900</v>
+        <v>1614900</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>1219900</v>
+        <v>1469900</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
+          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
         </is>
       </c>
       <c r="K253" t="n">
-        <v>2679900</v>
+        <v>2319900</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/omoda/c5/</t>
+          <t>https://sibir-morots.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
@@ -10763,113 +10797,87 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1469900</v>
+        <v>2739900</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>1719900</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1614900</v>
+        <v>2739900</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>1469900</v>
+        <v>2839900</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
-        </is>
-      </c>
-      <c r="K254" t="n">
-        <v>2319900</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/omoda/s5/</t>
+          <t>https://aspect-motors.ru/auto/omoda/S5-GT/SEDAN</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Paladin New</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2739900</v>
+        <v>2549000</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
-        <v>2739900</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2839900</v>
+        <v>2549000</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/S5-GT/SEDAN</t>
+          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Paladin New</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2549000</v>
+        <v>344000</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>2549000</v>
+        <v>344000</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
         </is>
       </c>
     </row>
@@ -10881,23 +10889,23 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>344000</v>
+        <v>334000</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
+          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>344000</v>
+        <v>334000</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
+          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
         </is>
       </c>
     </row>
@@ -10909,51 +10917,61 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>334000</v>
+        <v>394000</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
+          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>334000</v>
+        <v>394000</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
+          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>394000</v>
+        <v>1314000</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
-        </is>
-      </c>
-      <c r="I259" t="n">
-        <v>394000</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1314000</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1874000</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
@@ -10965,33 +10983,31 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1464000</v>
+        <v>938000</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>1464000</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="K260" t="n">
-        <v>1874000</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/arkana/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>1359000</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>938000</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
     </row>
@@ -11003,31 +11019,23 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>938000</v>
+        <v>1618000</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="G261" t="n">
-        <v>1359000</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="I261" t="n">
-        <v>938000</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
+          <t>https://sibir-morots.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1618000</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
@@ -11039,23 +11047,41 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1618000</v>
+        <v>646000</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="K262" t="n">
-        <v>1618000</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/duster/</t>
+          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1058000</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>1103000</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>646000</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
     </row>
@@ -11067,41 +11093,33 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>646000</v>
+        <v>1164000</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>1208000</t>
+          <t>1164000</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="G263" t="n">
-        <v>1103000</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
-        </is>
-      </c>
-      <c r="I263" t="n">
-        <v>646000</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1724000</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
@@ -11113,33 +11131,31 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1314000</v>
+        <v>896000</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>1314000</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="K264" t="n">
-        <v>1724000</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/kaptur/</t>
+          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>1209000</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>896000</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
     </row>
@@ -11151,31 +11167,33 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>896000</v>
+        <v>674000</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="G265" t="n">
-        <v>1209000</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="I265" t="n">
-        <v>896000</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>674000</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1124000</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
@@ -11187,33 +11205,31 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>824000</v>
+        <v>430000</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>824000</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="K266" t="n">
-        <v>1124000</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/logan/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>719000</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>430000</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
     </row>
@@ -11225,31 +11241,49 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>430000</v>
+        <v>536990</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
+          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>813000</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>719000</v>
+        <v>858000</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="I267" t="n">
-        <v>430000</v>
+        <v>536990</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
+          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1301000</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
@@ -11261,49 +11295,33 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>536990</v>
+        <v>564000</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>963000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>858000</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
-        </is>
-      </c>
-      <c r="I268" t="n">
-        <v>536990</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="K268" t="n">
-        <v>1301000</v>
+        <v>1258000</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/renault/logan_stepway/</t>
+          <t>https://sibir-morots.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
@@ -11315,33 +11333,31 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>714000</v>
+        <v>431000</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>714000</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="K269" t="n">
-        <v>1258000</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/sandero/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>609000</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>431000</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
     </row>
@@ -11353,31 +11369,33 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>431000</v>
+        <v>741000</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>609000</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="I270" t="n">
-        <v>431000</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>741000</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1373000</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
@@ -11389,69 +11407,67 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>891000</v>
+        <v>566990</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>891000</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="K271" t="n">
-        <v>1373000</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/sandero_stepway/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>786000</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>566990</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>566990</v>
+        <v>1748220</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>786000</v>
+        <v>1938220</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>566990</v>
+        <v>1748220</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
     </row>
@@ -11463,31 +11479,31 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1748220</v>
+        <v>1898340</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1938220</v>
+        <v>2088340</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1748220</v>
+        <v>1898340</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
     </row>
@@ -11499,67 +11515,85 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1898340</v>
+        <v>1935960</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2088340</v>
+        <v>2125960</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1898340</v>
+        <v>1935960</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1935960</v>
+        <v>1066900</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1255000</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2125960</v>
+        <v>1300000</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1935960</v>
+        <v>1066900</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
@@ -11571,49 +11605,49 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1066900</v>
+        <v>1607000</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>1405000</t>
+          <t>1607000</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1300000</v>
+        <v>1757000</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>1066900</v>
+        <v>1609500</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
+          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="K276" t="n">
-        <v>1705000</v>
+        <v>3640000</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/karoq/</t>
+          <t>https://sibir-morots.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
@@ -11625,49 +11659,23 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1609500</v>
+        <v>1657000</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>1757000</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
-        <v>1757000</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>1609500</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="K277" t="n">
-        <v>3640000</v>
+        <v>1657000</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/kodiaq/</t>
+          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
@@ -11679,23 +11687,31 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1657000</v>
+        <v>1214000</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="K278" t="n">
-        <v>1657000</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
+          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>1252000</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
     </row>
@@ -11707,31 +11723,25 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1214000</v>
+        <v>1207000</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="G279" t="n">
-        <v>1252000</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>1207000</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
@@ -11743,25 +11753,33 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1357000</v>
+        <v>601000</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>1357000</t>
+          <t>601000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1051000</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
@@ -11773,33 +11791,31 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>751000</v>
+        <v>570300</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>751000</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="K281" t="n">
-        <v>1051000</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/rapid/</t>
+          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>646000</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>570300</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
     </row>
@@ -11811,31 +11827,33 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>570300</v>
+        <v>2936000</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
-        <v>646000</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="I282" t="n">
-        <v>570300</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2936000</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>3386000</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
@@ -11847,33 +11865,33 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3086000</v>
+        <v>3367000</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>3086000</t>
+          <t>3367000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="K283" t="n">
-        <v>3386000</v>
+        <v>3817000</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/superb/</t>
+          <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
@@ -11885,61 +11903,69 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3517000</v>
+        <v>1830000</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>3517000</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="K284" t="n">
-        <v>3817000</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
+          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1830000</v>
+        <v>1219000</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>1599300</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1830000</v>
+        <v>1219000</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
@@ -11951,41 +11977,41 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1219000</v>
+        <v>766000</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1219000</v>
+        <v>766000</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="K286" t="n">
-        <v>2499000</v>
+        <v>2010000</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
+          <t>https://sibir-morots.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
@@ -11997,41 +12023,41 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>766000</v>
+        <v>729000</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>1679000</t>
+          <t>1425600</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>766000</v>
+        <v>729000</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="K287" t="n">
-        <v>2010000</v>
+        <v>2038000</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/hs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
@@ -12043,151 +12069,133 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>729000</v>
+        <v>789000</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>1575600</t>
+          <t>1564000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>729000</v>
+        <v>789000</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
       <c r="K288" t="n">
-        <v>2038000</v>
+        <v>2064000</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>789000</v>
+        <v>2399900</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>1714000</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>2399900</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>789000</v>
+        <v>2550000</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
-        </is>
-      </c>
-      <c r="K289" t="n">
-        <v>2064000</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
+          <t>https://aspect-motors.ru/auto/soueast/dx8s/dx8s</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>SsangYong</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>Actyon</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2399900</v>
+        <v>779000</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
-        <v>2399900</v>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
       <c r="I290" t="n">
-        <v>2550000</v>
+        <v>779000</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/soueast/dx8s/dx8s</t>
+          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SsangYong</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Actyon</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>779000</v>
+        <v>1419000</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>779000</v>
+        <v>1419000</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
     </row>
@@ -12199,23 +12207,23 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1419000</v>
+        <v>1109000</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
+          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>1419000</v>
+        <v>1109000</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
+          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
     </row>
@@ -12227,51 +12235,77 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1109000</v>
+        <v>1049000</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
         </is>
       </c>
       <c r="I293" t="n">
-        <v>1109000</v>
+        <v>1049000</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1049000</v>
+        <v>3389000</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>3389000</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>3434000</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>1049000</v>
+        <v>3609000</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://aspect-motors.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
@@ -12283,85 +12317,59 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3434000</v>
+        <v>4849000</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>3539000</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
+          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3434000</v>
+        <v>4899000</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>3609000</v>
+        <v>4849000</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/300/SUV_5D</t>
-        </is>
-      </c>
-      <c r="K295" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/tank/300/</t>
+          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4849000</v>
+        <v>1789000</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
-        <v>4899000</v>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
+          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>4849000</v>
+        <v>1789000</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
+          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
         </is>
       </c>
     </row>
@@ -12373,23 +12381,23 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1789000</v>
+        <v>1712500</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1789000</v>
+        <v>1712500</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
     </row>
@@ -12401,23 +12409,23 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1712500</v>
+        <v>1286000</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
+          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>1712500</v>
+        <v>1286000</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
+          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
         </is>
       </c>
     </row>
@@ -12429,23 +12437,23 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Hilux New</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1286000</v>
+        <v>2391000</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
+          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>1286000</v>
+        <v>2391000</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
+          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
         </is>
       </c>
     </row>
@@ -12457,51 +12465,77 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hilux New</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2391000</v>
+        <v>1859000</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>2391000</v>
+        <v>1859000</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1859000</v>
+        <v>583900</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
+          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>830000</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>875000</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1859000</v>
+        <v>583900</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
+          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1360000</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
@@ -12513,49 +12547,33 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>583900</v>
+        <v>990000</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>980000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="G302" t="n">
-        <v>875000</v>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
-        </is>
-      </c>
-      <c r="I302" t="n">
-        <v>583900</v>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="K302" t="n">
-        <v>1360000</v>
+        <v>1495000</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/uaz/hunter/</t>
+          <t>https://sibir-morots.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
@@ -12567,33 +12585,31 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1140000</v>
+        <v>657000</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>1140000</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="K303" t="n">
-        <v>1495000</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/uaz/patriot/</t>
+          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>1035000</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>657000</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
@@ -12605,31 +12621,33 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>657000</v>
+        <v>1015000</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="G304" t="n">
-        <v>1035000</v>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="I304" t="n">
-        <v>657000</v>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>1015000</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1520000</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
@@ -12641,69 +12659,59 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1165000</v>
+        <v>696500</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>1165000</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="K305" t="n">
-        <v>1520000</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>696500</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>696500</v>
+        <v>1949000</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
-        </is>
-      </c>
-      <c r="G306" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>696500</v>
+        <v>1949000</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
@@ -12715,23 +12723,23 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Golf New</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1949000</v>
+        <v>2302500</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1949000</v>
+        <v>2302500</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
         </is>
       </c>
     </row>
@@ -12743,23 +12751,33 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Golf New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2302500</v>
+        <v>958000</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
-        </is>
-      </c>
-      <c r="I308" t="n">
-        <v>2302500</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>958000</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1518000</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
@@ -12771,33 +12789,31 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1108000</v>
+        <v>1003000</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>1108000</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="K309" t="n">
-        <v>1518000</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/jetta/</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>1003000</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
     </row>
@@ -12809,31 +12825,33 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1003000</v>
+        <v>2173000</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="G310" t="n">
-        <v>1003000</v>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="I310" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2173000</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>2733000</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
@@ -12845,33 +12863,31 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2323000</v>
+        <v>2049000</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>2323000</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="K311" t="n">
-        <v>2733000</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/passat/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>2218000</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
     </row>
@@ -12883,31 +12899,33 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2049000</v>
+        <v>562400</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="G312" t="n">
-        <v>2218000</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="I312" t="n">
-        <v>2049000</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>562400</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1122400</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
@@ -12919,33 +12937,31 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>712400</v>
+        <v>540300</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>712400</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="K313" t="n">
-        <v>1122400</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/polo/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>607400</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>540300</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
     </row>
@@ -12957,31 +12973,49 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>540300</v>
+        <v>1299000</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2268900</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>607400</v>
+        <v>2313900</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>540300</v>
+        <v>1299000</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
@@ -12993,49 +13027,23 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Teramont New</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1299000</v>
+        <v>3558500</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>2418900</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="G315" t="n">
-        <v>2313900</v>
-      </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
         </is>
       </c>
       <c r="I315" t="n">
-        <v>1299000</v>
+        <v>3558500</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="K315" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/taos/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
         </is>
       </c>
     </row>
@@ -13047,23 +13055,23 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Teramont New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3558500</v>
+        <v>3375900</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
-        </is>
-      </c>
-      <c r="I316" t="n">
-        <v>3558500</v>
-      </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
+          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>3375900</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
@@ -13075,23 +13083,41 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3375900</v>
+        <v>1329900</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="K317" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1574900</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>1619900</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
         </is>
       </c>
     </row>
@@ -13103,97 +13129,89 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Touareg New</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1329900</v>
+        <v>5264500</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>1724900</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>1619900</v>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>1329900</v>
+        <v>5264500</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Touareg New</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5264500</v>
+        <v>1999000</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
-        </is>
-      </c>
-      <c r="I319" t="n">
-        <v>5264500</v>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1999000</v>
+        <v>929600</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>929600</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1485640</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
@@ -13205,69 +13223,31 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1079600</v>
+        <v>711600</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>1079600</t>
+          <t>711600</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="K321" t="n">
-        <v>1485640</v>
+        <v>1234000</v>
       </c>
       <c r="L321" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>861600</v>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>861600</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="K322" t="n">
-        <v>1234000</v>
-      </c>
-      <c r="L322" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/zotye/t600/</t>
         </is>
